--- a/data_impute_project/algorithm_result/terrestrial_mammals/combination_1_ABCD/B/10/seed2/result_data_KNN.xlsx
+++ b/data_impute_project/algorithm_result/terrestrial_mammals/combination_1_ABCD/B/10/seed2/result_data_KNN.xlsx
@@ -474,7 +474,7 @@
         <v>-21.82</v>
       </c>
       <c r="B3" t="n">
-        <v>6.875999999999999</v>
+        <v>5.933</v>
       </c>
       <c r="C3" t="n">
         <v>-12.16</v>
@@ -726,7 +726,7 @@
         <v>-19.55</v>
       </c>
       <c r="B21" t="n">
-        <v>10.034</v>
+        <v>9.379000000000001</v>
       </c>
       <c r="C21" t="n">
         <v>-13.13</v>
@@ -754,7 +754,7 @@
         <v>-20.35</v>
       </c>
       <c r="B23" t="n">
-        <v>8.666</v>
+        <v>7.886</v>
       </c>
       <c r="C23" t="n">
         <v>-12.89</v>
@@ -782,7 +782,7 @@
         <v>-21.51</v>
       </c>
       <c r="B25" t="n">
-        <v>5.999999999999999</v>
+        <v>5.392999999999999</v>
       </c>
       <c r="C25" t="n">
         <v>-11.07</v>
@@ -1174,7 +1174,7 @@
         <v>-21.36</v>
       </c>
       <c r="B53" t="n">
-        <v>6.453999999999999</v>
+        <v>6.412000000000001</v>
       </c>
       <c r="C53" t="n">
         <v>-12.98</v>
@@ -1230,7 +1230,7 @@
         <v>-22.67</v>
       </c>
       <c r="B57" t="n">
-        <v>4.88</v>
+        <v>5.034000000000001</v>
       </c>
       <c r="C57" t="n">
         <v>-15.01</v>
@@ -1258,7 +1258,7 @@
         <v>-21.94</v>
       </c>
       <c r="B59" t="n">
-        <v>4.324</v>
+        <v>4.682</v>
       </c>
       <c r="C59" t="n">
         <v>-14.55</v>
@@ -1398,7 +1398,7 @@
         <v>-21.67</v>
       </c>
       <c r="B69" t="n">
-        <v>5.75</v>
+        <v>5.59</v>
       </c>
       <c r="C69" t="n">
         <v>-10.8</v>
@@ -1538,7 +1538,7 @@
         <v>-20.57</v>
       </c>
       <c r="B79" t="n">
-        <v>6.488</v>
+        <v>5.577</v>
       </c>
       <c r="C79" t="n">
         <v>-9.779999999999999</v>
@@ -1594,7 +1594,7 @@
         <v>-22.74</v>
       </c>
       <c r="B83" t="n">
-        <v>4.996</v>
+        <v>5.824</v>
       </c>
       <c r="C83" t="n">
         <v>-13.03</v>
@@ -1734,7 +1734,7 @@
         <v>-21.49</v>
       </c>
       <c r="B93" t="n">
-        <v>5.434</v>
+        <v>4.973</v>
       </c>
       <c r="C93" t="n">
         <v>-10.09</v>
